--- a/biology/Histoire de la zoologie et de la botanique/Henri_Tournier_(entomologiste)/Henri_Tournier_(entomologiste).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Henri_Tournier_(entomologiste)/Henri_Tournier_(entomologiste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henri Tournier (1834-1904) est un entomologiste suisse, s'étant intéressé aux coléoptères et aux hémiptères.
 Sa collection est notamment intégrée à celle du Musée d'Histoire naturelle de Genève (MHNG).
@@ -514,22 +526,197 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1868
-Tournier, H. 1868 Description des Dascillides du bassin du Léman. 95 pp., 4 pls. Georg, Bale &amp; Genève. F. Savy, Paris (Association Zoologique du Léman. Année 1867).
-1874
-Tournier, H. 1874. Matériaux pour servir a la monographie de la tribu des Erirhinides de la famille des Curculionides (Coleopteres). Annales de la Société Entomologique de Belgique vol.17, no. I, pp. 63–116.
-1879
-Tournier, H. 1879. Description d'un nouveau coléoptère, appartenant au genre Laccobius Er. Mitt. Schweiz. Ent. Ges.
-Tournier, H. 1879. Matériaux pour servir a une monographie des espèces Européennes and Circumeuropéennes du genre Myllocerus Schh. Ann. Soc. Ent. Belg.
-1889
-Tournier, H. 1889. Hyménoptères, famille des Scolides: Monographie des espèces européennes et des contrées limitrophes du genre Tiphia Ann. Soc. Entomol. Belg. 33: 1–35.
+          <t>1868</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Tournier, H. 1868 Description des Dascillides du bassin du Léman. 95 pp., 4 pls. Georg, Bale &amp; Genève. F. Savy, Paris (Association Zoologique du Léman. Année 1867).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Henri_Tournier_(entomologiste)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Henri_Tournier_(entomologiste)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1874</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Tournier, H. 1874. Matériaux pour servir a la monographie de la tribu des Erirhinides de la famille des Curculionides (Coleopteres). Annales de la Société Entomologique de Belgique vol.17, no. I, pp. 63–116.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Henri_Tournier_(entomologiste)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Henri_Tournier_(entomologiste)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1879</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Tournier, H. 1879. Description d'un nouveau coléoptère, appartenant au genre Laccobius Er. Mitt. Schweiz. Ent. Ges.
+Tournier, H. 1879. Matériaux pour servir a une monographie des espèces Européennes and Circumeuropéennes du genre Myllocerus Schh. Ann. Soc. Ent. Belg.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Henri_Tournier_(entomologiste)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Henri_Tournier_(entomologiste)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1889</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Tournier, H. 1889. Hyménoptères, famille des Scolides: Monographie des espèces européennes et des contrées limitrophes du genre Tiphia Ann. Soc. Entomol. Belg. 33: 1–35.
 Tournier, H. 1889. Deux Hyménoptères nouveaux. Comptes rendus des Séances de la société entomologique de Belgique 33:23–24.
 Tournier, H. 1889. Études Hyménoptèrologiques; de quelques Pompilides d'Europe et contrées limitrophes. L’Entomologiste Genevois 1:133–140,154–178, 194–219.
-Tournier, H. 1889. Hyménoptères. Descriptions d'espèces nouvelles et remarques diverses. L’Entomologiste Genevois 1: 11–18, 2: 35–45, 3: 56–69, 4: 93–96, 5: 102–115, 6–8:124–140.
-1891
-Tournier, H. 1891. Descriptions d'espèces nouvelles L’Entomologiste Genevois 1:194–219.
-1895
-Tournier, H. 1895. Table synoptique des espèces européennes et circa-européennes du genre Ferreola. Soc. Ent. France, Bull. 11–13.</t>
+Tournier, H. 1889. Hyménoptères. Descriptions d'espèces nouvelles et remarques diverses. L’Entomologiste Genevois 1: 11–18, 2: 35–45, 3: 56–69, 4: 93–96, 5: 102–115, 6–8:124–140.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Henri_Tournier_(entomologiste)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Henri_Tournier_(entomologiste)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1891</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Tournier, H. 1891. Descriptions d'espèces nouvelles L’Entomologiste Genevois 1:194–219.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Henri_Tournier_(entomologiste)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Henri_Tournier_(entomologiste)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1895</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Tournier, H. 1895. Table synoptique des espèces européennes et circa-européennes du genre Ferreola. Soc. Ent. France, Bull. 11–13.</t>
         </is>
       </c>
     </row>
